--- a/VtigerCRM/src/test/resources/TestData/testscriptdata.xlsx
+++ b/VtigerCRM/src/test/resources/TestData/testscriptdata.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3rahu\eclipse-workspace\automation1\VtigerCRM\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3rahu\git\repository3\VtigerCRM\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
+    <sheet name="contact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -35,6 +36,36 @@
   </si>
   <si>
     <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>drop bown</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Shinchan</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Prof.</t>
   </si>
 </sst>
 </file>
@@ -364,7 +395,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -381,8 +412,6 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1"/>
-      <c r="D1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -391,8 +420,6 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
     </row>
     <row r="3">
       <c r="B3" t="s">
@@ -406,4 +433,64 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.57031" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.570313" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>